--- a/data/ttc-subway-delay-codes.xlsx
+++ b/data/ttc-subway-delay-codes.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Documents\GitHub\Project1\TTC_Subway_Delay_Dashboard\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_91D01D04097F702293035DE3F55B2D334B19BBA2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE9D110B-0CB5-4DD4-BFDC-150137A1E396}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,22 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet 1'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="349">
   <si>
     <t>SUB RMENU CODE</t>
   </si>
@@ -1069,7 +1085,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1192,6 +1208,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1239,7 +1258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1272,9 +1291,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1307,6 +1343,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1482,31 +1535,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H326"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="2"/>
-    <col min="6" max="6" width="7.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="51.42578125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="1.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="7.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="51.44140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9"/>
       <c r="C2" s="11" t="s">
         <v>0</v>
@@ -1522,7 +1575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -1542,7 +1595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <f t="shared" ref="B4:B52" si="0">B3+1</f>
         <v>2</v>
@@ -1564,7 +1617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1586,7 +1639,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1608,7 +1661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1630,7 +1683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1652,7 +1705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1674,7 +1727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1696,7 +1749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1718,7 +1771,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1740,7 +1793,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1762,7 +1815,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1784,7 +1837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1806,7 +1859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1828,7 +1881,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1850,7 +1903,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1872,7 +1925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1894,7 +1947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1916,7 +1969,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1938,7 +1991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1960,7 +2013,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1982,7 +2035,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2004,7 +2057,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2026,7 +2079,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2048,7 +2101,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2070,7 +2123,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2092,7 +2145,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2114,7 +2167,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2136,7 +2189,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2158,7 +2211,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2180,7 +2233,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2202,7 +2255,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2224,7 +2277,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2246,7 +2299,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2268,7 +2321,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2290,7 +2343,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2312,7 +2365,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2334,7 +2387,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2356,7 +2409,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2378,7 +2431,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2400,7 +2453,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2422,7 +2475,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2444,7 +2497,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2466,7 +2519,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2488,7 +2541,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2510,7 +2563,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2532,7 +2585,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2554,7 +2607,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2576,7 +2629,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2598,7 +2651,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2620,7 +2673,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <f t="shared" ref="B53:B116" si="3">B52+1</f>
         <v>51</v>
@@ -2642,7 +2695,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -2664,7 +2717,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -2686,7 +2739,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -2708,7 +2761,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -2730,7 +2783,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -2752,7 +2805,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -2774,7 +2827,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -2796,7 +2849,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -2818,7 +2871,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -2840,7 +2893,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -2862,7 +2915,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -2884,7 +2937,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -2906,7 +2959,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -2928,7 +2981,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -2950,7 +3003,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -2972,7 +3025,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -2994,7 +3047,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -3016,7 +3069,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -3038,7 +3091,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -3060,7 +3113,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -3082,7 +3135,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -3094,7 +3147,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -3106,7 +3159,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -3118,7 +3171,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -3130,7 +3183,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -3142,7 +3195,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -3154,7 +3207,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -3166,7 +3219,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -3178,7 +3231,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -3190,7 +3243,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -3202,7 +3255,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -3214,7 +3267,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -3226,7 +3279,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -3238,7 +3291,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -3250,7 +3303,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="88" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -3262,7 +3315,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -3274,7 +3327,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="90" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -3286,7 +3339,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="91" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -3298,7 +3351,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -3310,7 +3363,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="93" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -3322,7 +3375,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -3334,7 +3387,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -3346,7 +3399,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -3358,7 +3411,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -3370,7 +3423,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -3382,7 +3435,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -3394,7 +3447,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -3406,7 +3459,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -3418,7 +3471,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -3430,7 +3483,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="103" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -3442,7 +3495,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="104" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="3">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -3454,7 +3507,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="105" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="3">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -3466,7 +3519,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="3">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -3478,7 +3531,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="107" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="3">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -3490,7 +3543,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="108" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="3">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -3502,7 +3555,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="109" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="3">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -3514,7 +3567,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="110" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="3">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -3526,7 +3579,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="111" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="3">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -3538,7 +3591,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="112" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -3550,7 +3603,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="113" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="3">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -3562,7 +3615,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="114" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -3574,7 +3627,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="115" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="3">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -3586,7 +3639,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="116" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="3">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -3598,7 +3651,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="117" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="3">
         <f t="shared" ref="B117:B131" si="5">B116+1</f>
         <v>115</v>
@@ -3610,7 +3663,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="118" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="3">
         <f t="shared" si="5"/>
         <v>116</v>
@@ -3622,7 +3675,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="119" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="3">
         <f t="shared" si="5"/>
         <v>117</v>
@@ -3634,7 +3687,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="120" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="3">
         <f t="shared" si="5"/>
         <v>118</v>
@@ -3646,7 +3699,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="121" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="3">
         <f t="shared" si="5"/>
         <v>119</v>
@@ -3658,7 +3711,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="122" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="3">
         <f t="shared" si="5"/>
         <v>120</v>
@@ -3670,7 +3723,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3">
         <f t="shared" si="5"/>
         <v>121</v>
@@ -3682,7 +3735,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="124" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="3">
         <f t="shared" si="5"/>
         <v>122</v>
@@ -3694,7 +3747,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="125" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="3">
         <f t="shared" si="5"/>
         <v>123</v>
@@ -3706,7 +3759,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="126" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="3">
         <f t="shared" si="5"/>
         <v>124</v>
@@ -3718,7 +3771,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="127" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3">
         <f t="shared" si="5"/>
         <v>125</v>
@@ -3730,7 +3783,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="128" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="3">
         <f t="shared" si="5"/>
         <v>126</v>
@@ -3742,7 +3795,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="129" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="3">
         <f t="shared" si="5"/>
         <v>127</v>
@@ -3754,7 +3807,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="130" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="3">
         <f t="shared" si="5"/>
         <v>128</v>
@@ -3766,7 +3819,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="131" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="3">
         <f t="shared" si="5"/>
         <v>129</v>
@@ -3778,203 +3831,1072 @@
         <v>217</v>
       </c>
     </row>
-    <row r="132" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C132" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C133" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C144" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C146" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C148" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C149" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C150" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C153" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C154" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C155" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C156" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C157" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C158" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C159" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C160" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C161" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C162" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C164" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C165" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C166" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C167" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C168" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C170" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="171" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C171" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C172" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="173" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C173" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C174" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C175" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C176" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C177" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C178" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C179" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C180" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C181" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C182" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C183" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C184" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C185" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="186" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C186" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C187" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="188" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C188" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="189" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C189" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="190" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C190" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="191" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C191" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="192" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C192" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C193" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C194" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C195" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C196" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C197" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C198" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C199" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="200" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C200" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="201" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C201" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="202" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C202" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="203" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C203"/>
+      <c r="D203"/>
+    </row>
+    <row r="204" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C204"/>
+      <c r="D204"/>
+    </row>
+    <row r="205" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C205"/>
+      <c r="D205"/>
+    </row>
+    <row r="206" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C206"/>
+      <c r="D206"/>
+    </row>
+    <row r="207" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C207"/>
+      <c r="D207"/>
+    </row>
+    <row r="208" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C208"/>
+      <c r="D208"/>
+    </row>
+    <row r="209" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C209"/>
+      <c r="D209"/>
+    </row>
+    <row r="210" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C210"/>
+      <c r="D210"/>
+    </row>
+    <row r="211" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C211"/>
+      <c r="D211"/>
+    </row>
+    <row r="212" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C212"/>
+      <c r="D212"/>
+    </row>
+    <row r="213" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C213"/>
+      <c r="D213"/>
+    </row>
+    <row r="214" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C214"/>
+      <c r="D214"/>
+    </row>
+    <row r="215" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C215"/>
+      <c r="D215"/>
+    </row>
+    <row r="216" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C216"/>
+      <c r="D216"/>
+    </row>
+    <row r="217" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C217"/>
+      <c r="D217"/>
+    </row>
+    <row r="218" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C218"/>
+      <c r="D218"/>
+    </row>
+    <row r="219" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C219"/>
+      <c r="D219"/>
+    </row>
+    <row r="220" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C220"/>
+      <c r="D220"/>
+    </row>
+    <row r="221" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C221"/>
+      <c r="D221"/>
+    </row>
+    <row r="222" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C222"/>
+      <c r="D222"/>
+    </row>
+    <row r="223" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C223"/>
+      <c r="D223"/>
+    </row>
+    <row r="224" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C224"/>
+      <c r="D224"/>
+    </row>
+    <row r="225" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C225"/>
+      <c r="D225"/>
+    </row>
+    <row r="226" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C226"/>
+      <c r="D226"/>
+    </row>
+    <row r="227" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C227"/>
+      <c r="D227"/>
+    </row>
+    <row r="228" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C228"/>
+      <c r="D228"/>
+    </row>
+    <row r="229" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C229"/>
+      <c r="D229"/>
+    </row>
+    <row r="230" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C230"/>
+      <c r="D230"/>
+    </row>
+    <row r="231" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C231"/>
+      <c r="D231"/>
+    </row>
+    <row r="232" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C232"/>
+      <c r="D232"/>
+    </row>
+    <row r="233" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C233"/>
+      <c r="D233"/>
+    </row>
+    <row r="234" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C234"/>
+      <c r="D234"/>
+    </row>
+    <row r="235" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C235"/>
+      <c r="D235"/>
+    </row>
+    <row r="236" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C236"/>
+      <c r="D236"/>
+    </row>
+    <row r="237" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C237"/>
+      <c r="D237"/>
+    </row>
+    <row r="238" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C238"/>
+      <c r="D238"/>
+    </row>
+    <row r="239" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C239"/>
+      <c r="D239"/>
+    </row>
+    <row r="240" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C240"/>
+      <c r="D240"/>
+    </row>
+    <row r="241" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C241"/>
+      <c r="D241"/>
+    </row>
+    <row r="242" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C242"/>
+      <c r="D242"/>
+    </row>
+    <row r="243" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C243"/>
+      <c r="D243"/>
+    </row>
+    <row r="244" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C244"/>
+      <c r="D244"/>
+    </row>
+    <row r="245" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C245"/>
+      <c r="D245"/>
+    </row>
+    <row r="246" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C246"/>
+      <c r="D246"/>
+    </row>
+    <row r="247" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C247"/>
+      <c r="D247"/>
+    </row>
+    <row r="248" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C248"/>
+      <c r="D248"/>
+    </row>
+    <row r="249" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C249"/>
+      <c r="D249"/>
+    </row>
+    <row r="250" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C250"/>
+      <c r="D250"/>
+    </row>
+    <row r="251" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C251"/>
+      <c r="D251"/>
+    </row>
+    <row r="252" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C252"/>
+      <c r="D252"/>
+    </row>
+    <row r="253" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C253"/>
+      <c r="D253"/>
+    </row>
+    <row r="254" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C254"/>
+      <c r="D254"/>
+    </row>
+    <row r="255" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C255"/>
+      <c r="D255"/>
+    </row>
+    <row r="256" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C256"/>
+      <c r="D256"/>
+    </row>
+    <row r="257" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C257"/>
+      <c r="D257"/>
+    </row>
+    <row r="258" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C258"/>
+      <c r="D258"/>
+    </row>
+    <row r="259" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C259"/>
+      <c r="D259"/>
+    </row>
+    <row r="260" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C260"/>
+      <c r="D260"/>
+    </row>
+    <row r="261" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C261"/>
+      <c r="D261"/>
+    </row>
+    <row r="262" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C262"/>
+      <c r="D262"/>
+    </row>
+    <row r="263" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C263"/>
+      <c r="D263"/>
+    </row>
+    <row r="264" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C264"/>
+      <c r="D264"/>
+    </row>
+    <row r="265" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C265"/>
+      <c r="D265"/>
+    </row>
+    <row r="266" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C266"/>
+      <c r="D266"/>
+    </row>
+    <row r="267" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C267"/>
+      <c r="D267"/>
+    </row>
+    <row r="268" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C268"/>
+      <c r="D268"/>
+    </row>
+    <row r="269" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C269"/>
+      <c r="D269"/>
+    </row>
+    <row r="270" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C270"/>
+      <c r="D270"/>
+    </row>
+    <row r="271" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C271"/>
+      <c r="D271"/>
+    </row>
+    <row r="272" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C272"/>
+      <c r="D272"/>
+    </row>
+    <row r="273" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C273"/>
+      <c r="D273"/>
+    </row>
+    <row r="274" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C274"/>
+      <c r="D274"/>
+    </row>
+    <row r="275" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C275"/>
+      <c r="D275"/>
+    </row>
+    <row r="276" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C276"/>
+      <c r="D276"/>
+    </row>
+    <row r="277" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C277"/>
+      <c r="D277"/>
+    </row>
+    <row r="278" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C278"/>
+      <c r="D278"/>
+    </row>
+    <row r="279" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C279"/>
+      <c r="D279"/>
+    </row>
+    <row r="280" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C280"/>
+      <c r="D280"/>
+    </row>
+    <row r="281" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C281"/>
+      <c r="D281"/>
+    </row>
+    <row r="282" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C282"/>
+      <c r="D282"/>
+    </row>
+    <row r="283" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C283"/>
+      <c r="D283"/>
+    </row>
+    <row r="284" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C284"/>
+      <c r="D284"/>
+    </row>
+    <row r="285" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C285"/>
+      <c r="D285"/>
+    </row>
+    <row r="286" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C286"/>
+      <c r="D286"/>
+    </row>
+    <row r="287" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C287"/>
+      <c r="D287"/>
+    </row>
+    <row r="288" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C288"/>
+      <c r="D288"/>
+    </row>
+    <row r="289" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C289"/>
+      <c r="D289"/>
+    </row>
+    <row r="290" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C290"/>
+      <c r="D290"/>
+    </row>
+    <row r="291" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C291"/>
+      <c r="D291"/>
+    </row>
+    <row r="292" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C292"/>
+      <c r="D292"/>
+    </row>
+    <row r="293" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C293"/>
+      <c r="D293"/>
+    </row>
+    <row r="294" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C294"/>
+      <c r="D294"/>
+    </row>
+    <row r="295" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C295"/>
+      <c r="D295"/>
+    </row>
+    <row r="296" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C296"/>
+      <c r="D296"/>
+    </row>
+    <row r="297" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C297"/>
+      <c r="D297"/>
+    </row>
+    <row r="298" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C298"/>
+      <c r="D298"/>
+    </row>
+    <row r="299" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C299"/>
+      <c r="D299"/>
+    </row>
+    <row r="300" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C300"/>
+      <c r="D300"/>
+    </row>
+    <row r="301" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C301"/>
+      <c r="D301"/>
+    </row>
+    <row r="302" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C302"/>
+      <c r="D302"/>
+    </row>
+    <row r="303" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C303"/>
+      <c r="D303"/>
+    </row>
+    <row r="304" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C304"/>
+      <c r="D304"/>
+    </row>
+    <row r="305" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C305"/>
+      <c r="D305"/>
+    </row>
+    <row r="306" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C306"/>
+      <c r="D306"/>
+    </row>
+    <row r="307" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C307"/>
+      <c r="D307"/>
+    </row>
+    <row r="308" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C308"/>
+      <c r="D308"/>
+    </row>
+    <row r="309" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C309"/>
+      <c r="D309"/>
+    </row>
+    <row r="310" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C310"/>
+      <c r="D310"/>
+    </row>
+    <row r="311" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C311"/>
+      <c r="D311"/>
+    </row>
+    <row r="312" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C312"/>
+      <c r="D312"/>
+    </row>
+    <row r="313" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C313"/>
+      <c r="D313"/>
+    </row>
+    <row r="314" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C314"/>
+      <c r="D314"/>
+    </row>
+    <row r="315" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C315"/>
+      <c r="D315"/>
+    </row>
+    <row r="316" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C316"/>
+      <c r="D316"/>
+    </row>
+    <row r="317" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C317"/>
+      <c r="D317"/>
+    </row>
+    <row r="318" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C318"/>
+      <c r="D318"/>
+    </row>
+    <row r="319" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C319"/>
+      <c r="D319"/>
+    </row>
+    <row r="320" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C320"/>
+      <c r="D320"/>
+    </row>
+    <row r="321" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C321"/>
+      <c r="D321"/>
+    </row>
+    <row r="322" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C322"/>
+      <c r="D322"/>
+    </row>
+    <row r="323" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C323"/>
+      <c r="D323"/>
+    </row>
+    <row r="324" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C324"/>
+      <c r="D324"/>
+    </row>
+    <row r="325" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C325"/>
+      <c r="D325"/>
+    </row>
+    <row r="326" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C326"/>
+      <c r="D326"/>
+    </row>
   </sheetData>
-  <sortState ref="G3:H73">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G3:H73">
     <sortCondition ref="G3:G73"/>
   </sortState>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
